--- a/1试件设计/0亨铁钢材试件/2016.11高强钢单调拉伸/单调拉伸试件材性数据.xlsx
+++ b/1试件设计/0亨铁钢材试件/2016.11高强钢单调拉伸/单调拉伸试件材性数据.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0学习\研二上\课题\1试件设计\0亨铁钢材试件\2016.11高强钢单调拉伸\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\1毕业课题\#Graduate-thesis\1试件设计\0亨铁钢材试件\2016.11高强钢单调拉伸\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -137,8 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +271,9 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,9 +282,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -600,48 +600,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
@@ -649,8 +649,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -681,14 +681,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>20</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>10</v>
       </c>
       <c r="D4" s="1">
@@ -711,17 +711,17 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <f>D4*E4</f>
         <v>207.9744</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1">
         <v>20.18</v>
       </c>
@@ -742,17 +742,17 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="11">
+      <c r="L5" s="8">
         <f t="shared" ref="L5:L27" si="0">D5*E5</f>
         <v>206.845</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1">
         <v>20.2</v>
       </c>
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="11">
+      <c r="L6" s="8">
         <f t="shared" si="0"/>
         <v>206.84799999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -816,19 +816,19 @@
         <f>I7/F7-1</f>
         <v>0.22575019742037372</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>207.22263333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>15</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>20</v>
       </c>
       <c r="D8" s="1">
@@ -851,17 +851,17 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="11">
+      <c r="L8" s="8">
         <f t="shared" si="0"/>
         <v>294.19600000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="1">
         <v>15</v>
       </c>
@@ -882,17 +882,17 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="11">
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>294.60000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="1">
         <v>15.07</v>
       </c>
@@ -913,12 +913,12 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="11">
+      <c r="L10" s="8">
         <f t="shared" si="0"/>
         <v>296.57760000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -956,19 +956,19 @@
         <f>I11/F11-1</f>
         <v>0.20138157894736852</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="8">
         <f t="shared" si="0"/>
         <v>295.12373333333329</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>20</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>10</v>
       </c>
       <c r="D12" s="1">
@@ -991,17 +991,17 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="11">
+      <c r="L12" s="8">
         <f t="shared" si="0"/>
         <v>193.66760000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="1">
         <v>20.18</v>
       </c>
@@ -1022,17 +1022,17 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="11">
+      <c r="L13" s="8">
         <f t="shared" si="0"/>
         <v>194.93879999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="1">
         <v>20.09</v>
       </c>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="11">
+      <c r="L14" s="8">
         <f t="shared" si="0"/>
         <v>192.4622</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1096,19 +1096,19 @@
         <f>I15/F15-1</f>
         <v>0.16237968529286162</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="8">
         <f t="shared" si="0"/>
         <v>193.68853333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>15</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>20</v>
       </c>
       <c r="D16" s="1">
@@ -1131,17 +1131,17 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="11">
+      <c r="L16" s="8">
         <f t="shared" si="0"/>
         <v>295.20499999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="1">
         <v>15.21</v>
       </c>
@@ -1162,17 +1162,17 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="11">
+      <c r="L17" s="8">
         <f t="shared" si="0"/>
         <v>297.35550000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="1">
         <v>15.07</v>
       </c>
@@ -1193,12 +1193,12 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="11">
+      <c r="L18" s="8">
         <f t="shared" si="0"/>
         <v>293.11149999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1236,19 +1236,19 @@
         <f>I19/F19-1</f>
         <v>0.18617647058823539</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="8">
         <f t="shared" si="0"/>
         <v>295.22211111111108</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>20</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>10</v>
       </c>
       <c r="D20" s="1">
@@ -1271,17 +1271,17 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="11">
+      <c r="L20" s="8">
         <f t="shared" si="0"/>
         <v>195.2415</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="1">
         <v>19.190000000000001</v>
       </c>
@@ -1302,17 +1302,17 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="11">
+      <c r="L21" s="8">
         <f t="shared" si="0"/>
         <v>195.35420000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="1">
         <v>19.329999999999998</v>
       </c>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="11">
+      <c r="L22" s="8">
         <f t="shared" si="0"/>
         <v>196.39279999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1376,19 +1376,19 @@
         <f>I23/F23-1</f>
         <v>0.12495897065581296</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="8">
         <f t="shared" si="0"/>
         <v>195.66490000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>15</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>20</v>
       </c>
       <c r="D24" s="1">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="11">
+      <c r="L24" s="8">
         <f t="shared" si="0"/>
         <v>300.2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="1">
         <v>15.18</v>
       </c>
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="11">
+      <c r="L25" s="8">
         <f t="shared" si="0"/>
         <v>302.84100000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="1">
         <v>15.07</v>
       </c>
@@ -1473,12 +1473,12 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="11">
+      <c r="L26" s="8">
         <f t="shared" si="0"/>
         <v>301.09860000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -1516,13 +1516,14 @@
         <f>I27/F27-1</f>
         <v>0.16067923046721644</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="8">
         <f t="shared" si="0"/>
         <v>301.38131111111113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A1:K1"/>
@@ -1539,7 +1540,6 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C20:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
